--- a/testdata/ExcelTestData/sample.xlsx
+++ b/testdata/ExcelTestData/sample.xlsx
@@ -1,60 +1,1453 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20363"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PANDC\19032020\pandc\testdata\ExcelTestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\monica.dayal\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF35A2B-886A-4DA5-AB04-8640D8BDFD81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4284E65E-3340-46F5-B5FE-5730B070BAC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1DFC9051-0B51-41CB-A5A9-EB19DE47F7B2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{D923499C-DDE5-4EE4-B604-8A52F010599A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Test Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Named Insureds" sheetId="11" r:id="rId1"/>
+    <sheet name="Revenue &amp; Liability Limits" sheetId="7" r:id="rId2"/>
+    <sheet name="Property" sheetId="2" r:id="rId3"/>
+    <sheet name="BI worksheet" sheetId="3" r:id="rId4"/>
+    <sheet name="BI dependent" sheetId="4" r:id="rId5"/>
+    <sheet name="Transit" sheetId="6" r:id="rId6"/>
+    <sheet name="Auto" sheetId="8" r:id="rId7"/>
+    <sheet name="International Revenue &amp; Payroll" sheetId="12" r:id="rId8"/>
+    <sheet name="Workers Comp" sheetId="9" r:id="rId9"/>
+    <sheet name="WC Supplemental" sheetId="10" r:id="rId10"/>
+    <sheet name="Premium history " sheetId="1" r:id="rId11"/>
+    <sheet name="Crime" sheetId="5" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>ColumName</t>
-  </si>
-  <si>
-    <t>Colum Value</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="465">
+  <si>
+    <t>Column Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Column Value </t>
+  </si>
+  <si>
+    <t>Coverage Name</t>
+  </si>
+  <si>
+    <t>Insurance Company</t>
+  </si>
+  <si>
+    <t>Policy Number</t>
+  </si>
+  <si>
+    <t>Rating Basis</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>Premium</t>
+  </si>
+  <si>
+    <t>Deductible</t>
+  </si>
+  <si>
+    <t>Losses</t>
+  </si>
+  <si>
+    <t>Loss Ratio</t>
+  </si>
+  <si>
+    <t>Property</t>
+  </si>
+  <si>
+    <t>Test Insurance</t>
+  </si>
+  <si>
+    <t>Test Insurance 1</t>
+  </si>
+  <si>
+    <t>Test Insurance 2</t>
+  </si>
+  <si>
+    <t>Test Insurance 3</t>
+  </si>
+  <si>
+    <t>Test Insurance 4</t>
+  </si>
+  <si>
+    <t>PN123</t>
+  </si>
+  <si>
+    <t>PN234</t>
+  </si>
+  <si>
+    <t>PN345</t>
+  </si>
+  <si>
+    <t>PN456</t>
+  </si>
+  <si>
+    <t>PN567</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Column Name </t>
+  </si>
+  <si>
+    <t>Deductibles</t>
+  </si>
+  <si>
+    <t>Business Income w/Extra Expense</t>
+  </si>
+  <si>
+    <t>Contingent Business Income</t>
+  </si>
+  <si>
+    <t>California Earthquake Sprinkler Leakage (EQSL)</t>
+  </si>
+  <si>
+    <t>Earthquake - CA</t>
+  </si>
+  <si>
+    <t>Earthquake - all other</t>
+  </si>
+  <si>
+    <t>Flood - Zone A</t>
+  </si>
+  <si>
+    <t>Flood - all other</t>
+  </si>
+  <si>
+    <t>Limits:</t>
+  </si>
+  <si>
+    <t>Building</t>
+  </si>
+  <si>
+    <t>Tenents Improvements &amp; Betterments</t>
+  </si>
+  <si>
+    <t>Business Personal Property</t>
+  </si>
+  <si>
+    <t>EDP Property</t>
+  </si>
+  <si>
+    <t>Earthquake - California</t>
+  </si>
+  <si>
+    <t>Earthquake - All Other States</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>Contingent Business Income (CBI)</t>
+  </si>
+  <si>
+    <t>Contingent Business Income (CBI) - Unscheduled</t>
+  </si>
+  <si>
+    <t>Earthquake Sprinkler Leakage (EQSL) - California</t>
+  </si>
+  <si>
+    <t>Flood - High Hazard</t>
+  </si>
+  <si>
+    <t>Flood - Low Hazard</t>
+  </si>
+  <si>
+    <t>Property at Any Other Location</t>
+  </si>
+  <si>
+    <t>BI w/EE Any Other Location</t>
+  </si>
+  <si>
+    <t>Property in Transit</t>
+  </si>
+  <si>
+    <t>Equipment/Mechanical Breakdown</t>
+  </si>
+  <si>
+    <t>U.S. Certified Acts of Terrorism (TRIA) &amp; Fire Following (Cannot be Rejected)</t>
+  </si>
+  <si>
+    <t>Coverage Notes</t>
+  </si>
+  <si>
+    <t>Test Coverage Note</t>
+  </si>
+  <si>
+    <t>Premise - 10</t>
+  </si>
+  <si>
+    <t>Avenue Street1</t>
+  </si>
+  <si>
+    <t>Premises Number</t>
+  </si>
+  <si>
+    <t>Street Address</t>
+  </si>
+  <si>
+    <t>Building Number</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Zip Code</t>
+  </si>
+  <si>
+    <t>Building Replacement Value</t>
+  </si>
+  <si>
+    <t>Tenant Improvements Replacement Values</t>
+  </si>
+  <si>
+    <t>Furniture &amp; Fixtures Replacement Values</t>
+  </si>
+  <si>
+    <t>Computer Hardware, Servers Replacement Values</t>
+  </si>
+  <si>
+    <t>Mfg. Or Lab Equipment Replacement Values</t>
+  </si>
+  <si>
+    <t>Finished Stock Ready for Sale Selling Price*</t>
+  </si>
+  <si>
+    <t>Building Use (i.e. office, warehouse, manufacturing etc.)</t>
+  </si>
+  <si>
+    <t>Total Area Sq. Ft.</t>
+  </si>
+  <si>
+    <t>% Occupied</t>
+  </si>
+  <si>
+    <t>Construction Type</t>
+  </si>
+  <si>
+    <t>Year Built</t>
+  </si>
+  <si>
+    <t># of Stories</t>
+  </si>
+  <si>
+    <t>Other Occupants</t>
+  </si>
+  <si>
+    <t>150-A</t>
+  </si>
+  <si>
+    <t>Test City</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>Server Room /-&amp; Hardware spare room</t>
+  </si>
+  <si>
+    <t>Brick and Concrete</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Annual Net Profit/(Net Loss) Before Tax</t>
+  </si>
+  <si>
+    <t>Annual Continuing Expenses (i.e. payroll, non-abated rent, utilities, maintenance, etc.)</t>
+  </si>
+  <si>
+    <t>What is (in number of months) the amount of time needed to operate at 100% in the event of a total loss?</t>
+  </si>
+  <si>
+    <t>Extra Expense (i.e. extraordinary expenses, rent and utilities at temporary locations, moving, installation of equipment, employee travel expenses, etc.) - Any additional expenses you would incur due to a Business Interruption Loss.</t>
+  </si>
+  <si>
+    <t>Would any expenses decrease significantly? (Yes / No)</t>
+  </si>
+  <si>
+    <t>Other factors? (Yes / No)</t>
+  </si>
+  <si>
+    <t>Expiring Limit</t>
+  </si>
+  <si>
+    <t>Requested Limit</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Test Note 1</t>
+  </si>
+  <si>
+    <t>Limit Provided for Unscheduled Locations</t>
+  </si>
+  <si>
+    <t>Company Name</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Product/Service Suppliers</t>
+  </si>
+  <si>
+    <t>Construction &amp; Protection Information (sprinklered?)</t>
+  </si>
+  <si>
+    <t>Months Needed to Find Alternative</t>
+  </si>
+  <si>
+    <t>Estimated Potential Maximum Revenue Loss</t>
+  </si>
+  <si>
+    <t>Test Company 1</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Test Contingent Note</t>
+  </si>
+  <si>
+    <t>Retention</t>
+  </si>
+  <si>
+    <t>Employee Theft Coverage</t>
+  </si>
+  <si>
+    <t>ERISA/401(k) Plan</t>
+  </si>
+  <si>
+    <t>Premises Coverage</t>
+  </si>
+  <si>
+    <t>In Transit Coverage</t>
+  </si>
+  <si>
+    <t>Forgery Coverage</t>
+  </si>
+  <si>
+    <t>Computer Fraud Coverage</t>
+  </si>
+  <si>
+    <t>Funds Transfer Fraud Coverage</t>
+  </si>
+  <si>
+    <t>Money Order &amp; Counterfeit Currency Fraud Coverage</t>
+  </si>
+  <si>
+    <t>Credit Card Fraud Coverage</t>
+  </si>
+  <si>
+    <t>Client Coverage (Third Party Crime Coverage)</t>
+  </si>
+  <si>
+    <t>Expense Coverage</t>
+  </si>
+  <si>
+    <t>Social Engineering Fraud Coverage</t>
+  </si>
+  <si>
+    <t>General Questions</t>
+  </si>
+  <si>
+    <t>Name of Plan</t>
+  </si>
+  <si>
+    <t>Principal Address</t>
+  </si>
+  <si>
+    <t>Number of Trustees, Employees, etc Handling Plan Assets</t>
+  </si>
+  <si>
+    <t>Number of Plan Participants</t>
+  </si>
+  <si>
+    <t>Total Assets</t>
+  </si>
+  <si>
+    <t>Plan Test</t>
+  </si>
+  <si>
+    <t>Test Address</t>
+  </si>
+  <si>
+    <t>Monthly Contribution</t>
+  </si>
+  <si>
+    <t>Coverage Requirements Comment</t>
+  </si>
+  <si>
+    <t>Test Coverage</t>
+  </si>
+  <si>
+    <t>Incoming Shipment</t>
+  </si>
+  <si>
+    <t>Column Value</t>
+  </si>
+  <si>
+    <t>Annual Values Shipped</t>
+  </si>
+  <si>
+    <t>Domestic</t>
+  </si>
+  <si>
+    <t>Foreign</t>
+  </si>
+  <si>
+    <t>Inter-Company</t>
+  </si>
+  <si>
+    <t>Maximum Value Per Conveyance</t>
+  </si>
+  <si>
+    <t>Average Value Per Conveyance</t>
+  </si>
+  <si>
+    <t>Type of Conveyance Used</t>
+  </si>
+  <si>
+    <t>Terms of Shipments:</t>
+  </si>
+  <si>
+    <t>Outgoing Shipment</t>
+  </si>
+  <si>
+    <t>Description of Products:</t>
+  </si>
+  <si>
+    <t>Description of how Products are Packaged:</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Test Products</t>
+  </si>
+  <si>
+    <t>Box Packaged</t>
+  </si>
+  <si>
+    <t>Program Structure</t>
+  </si>
+  <si>
+    <t>Deductibles:</t>
+  </si>
+  <si>
+    <t>Cargo/Transit</t>
+  </si>
+  <si>
+    <t>Scheduled Locations</t>
+  </si>
+  <si>
+    <t>Wind, Earthquake &amp; Flood</t>
+  </si>
+  <si>
+    <t>Land Conveyance</t>
+  </si>
+  <si>
+    <t>Vessel Conveyance</t>
+  </si>
+  <si>
+    <t>Air Conveyance</t>
+  </si>
+  <si>
+    <t>Non-Containerized On Deck Conveyance</t>
+  </si>
+  <si>
+    <t>War Risk</t>
+  </si>
+  <si>
+    <t>Exhibiton/Trade Fairs</t>
+  </si>
+  <si>
+    <t>By Registered Mail</t>
+  </si>
+  <si>
+    <t>Messenger</t>
+  </si>
+  <si>
+    <t>Any One Un-named Location</t>
+  </si>
+  <si>
+    <t>Wind, Earthquake (EQ) &amp; Flood (CA EQ Excluded)</t>
+  </si>
+  <si>
+    <t>Test Note</t>
+  </si>
+  <si>
+    <t>Estimated Exposure for General Liability for the Policy Period Noted Below(Table)</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>$15000</t>
+  </si>
+  <si>
+    <t>$12000</t>
+  </si>
+  <si>
+    <t>$10000</t>
+  </si>
+  <si>
+    <t>Sales/Service</t>
+  </si>
+  <si>
+    <t>$2000000</t>
+  </si>
+  <si>
+    <t>$15000000</t>
+  </si>
+  <si>
+    <t>$10000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total </t>
+  </si>
+  <si>
+    <t>$280000</t>
+  </si>
+  <si>
+    <t>$18000000</t>
+  </si>
+  <si>
+    <t>Commercial General Liability</t>
+  </si>
+  <si>
+    <t>Employee Benefits Liability</t>
+  </si>
+  <si>
+    <t>Commercial General Liability:</t>
+  </si>
+  <si>
+    <t>Each Occurrence</t>
+  </si>
+  <si>
+    <t>Products/Completed Operations Aggregate</t>
+  </si>
+  <si>
+    <t>General Aggregate</t>
+  </si>
+  <si>
+    <t>Personal &amp; Advertising Injury</t>
+  </si>
+  <si>
+    <t>Damage to Premises Rented to You</t>
+  </si>
+  <si>
+    <t>Medical Payments</t>
+  </si>
+  <si>
+    <t>Employee Benefits Liability:</t>
+  </si>
+  <si>
+    <t>Each Claim</t>
+  </si>
+  <si>
+    <t>Annual Aggregate</t>
+  </si>
+  <si>
+    <t>Retroactive Date</t>
+  </si>
+  <si>
+    <t>Answers</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Do your subcontractors carry coverage or limits less than yours?</t>
+  </si>
+  <si>
+    <t>Are subcontractors allowed to work without providing you with a certificate of insurance?</t>
+  </si>
+  <si>
+    <t>Does applicant lease equipment to others with or without operators?</t>
+  </si>
+  <si>
+    <t>Description of work subcontracted Amount paid to subcontractors?</t>
+  </si>
+  <si>
+    <t>Description of work subcontracted Percentage of work subcontracted?</t>
+  </si>
+  <si>
+    <t>Description of work subcontracted Number of Full-Time Staff?</t>
+  </si>
+  <si>
+    <t>Description of work subcontracted Number of Part-Time Staff?</t>
+  </si>
+  <si>
+    <t>Does applicant install, service or demonstrate products?</t>
+  </si>
+  <si>
+    <t>Foreign products sold, distributed, used as components?</t>
+  </si>
+  <si>
+    <t>Research and development conducted or new products planned?</t>
+  </si>
+  <si>
+    <t>Guarantees, Warranties, Hold Harmless Agreements?</t>
+  </si>
+  <si>
+    <t>Products related to Aircraft/Space Industry?</t>
+  </si>
+  <si>
+    <t>Products recalled, discontinued, changed?</t>
+  </si>
+  <si>
+    <t>Products of others sold or re-packaged under applicant label?</t>
+  </si>
+  <si>
+    <t>Products under label of others?</t>
+  </si>
+  <si>
+    <t>Vendors coverage required?</t>
+  </si>
+  <si>
+    <t>Does any Named Insured sell to other Named Insureds?</t>
+  </si>
+  <si>
+    <t>Any medical facilities provided or medical professionals employed or contracted?</t>
+  </si>
+  <si>
+    <t>Do any operations include blasting or utilize or store explosive materials?</t>
+  </si>
+  <si>
+    <t>Any exposure to radioactive/nuclear materials?</t>
+  </si>
+  <si>
+    <t>Do any operations include excavation, tunneling, underground work or earth moving?</t>
+  </si>
+  <si>
+    <t>Do/have past, present or discontinued operations involved storing, treating, discharging, applying, disposing, or transporting of hazardous materials?</t>
+  </si>
+  <si>
+    <t>Any operations sold, acquired, or discontinued in last 5 years?</t>
+  </si>
+  <si>
+    <t>Machinery or equipment loaned or rented to others?</t>
+  </si>
+  <si>
+    <t>Any watercraft, docks, floats owned, hired or leased?</t>
+  </si>
+  <si>
+    <t>Is a fee charged for parking?</t>
+  </si>
+  <si>
+    <t>Recreation facilities provided?</t>
+  </si>
+  <si>
+    <t>Is there a swimming pool on the premises?</t>
+  </si>
+  <si>
+    <t>Sporting or social events sponsored?</t>
+  </si>
+  <si>
+    <t>Any structural alterations contemplated?</t>
+  </si>
+  <si>
+    <t>Any demolition exposure contemplated?</t>
+  </si>
+  <si>
+    <t>Has applicant been active in or is currently active in Joint Ventures?</t>
+  </si>
+  <si>
+    <t>Do you lease employees to or from other employers?</t>
+  </si>
+  <si>
+    <t>Is there a labor interchange with any other business or subsidiaries?</t>
+  </si>
+  <si>
+    <t>Are Day Care facilities operated or controlled?</t>
+  </si>
+  <si>
+    <t>Have any crimes occurred or been attempted on your premises within the last three years?</t>
+  </si>
+  <si>
+    <t>Is there a formal, written safety and security policy in effect?</t>
+  </si>
+  <si>
+    <t>Does the businesses promotional literature make any representations about the safety or security of the premises?</t>
+  </si>
+  <si>
+    <t>Comment1</t>
+  </si>
+  <si>
+    <t>Comment2</t>
+  </si>
+  <si>
+    <t>Comment3</t>
+  </si>
+  <si>
+    <t>Comment4</t>
+  </si>
+  <si>
+    <t>Comment5</t>
+  </si>
+  <si>
+    <t>Comment6</t>
+  </si>
+  <si>
+    <t>Comment7</t>
+  </si>
+  <si>
+    <t>Comment8</t>
+  </si>
+  <si>
+    <t>Comment9</t>
+  </si>
+  <si>
+    <t>Comment10</t>
+  </si>
+  <si>
+    <t>Comment11</t>
+  </si>
+  <si>
+    <t>Comment12</t>
+  </si>
+  <si>
+    <t>Comment13</t>
+  </si>
+  <si>
+    <t>Comment14</t>
+  </si>
+  <si>
+    <t>Comment15</t>
+  </si>
+  <si>
+    <t>Comment16</t>
+  </si>
+  <si>
+    <t>Comment17</t>
+  </si>
+  <si>
+    <t>Comment18</t>
+  </si>
+  <si>
+    <t>Comment19</t>
+  </si>
+  <si>
+    <t>Comment20</t>
+  </si>
+  <si>
+    <t>Comment21</t>
+  </si>
+  <si>
+    <t>Comment22</t>
+  </si>
+  <si>
+    <t>Comment23</t>
+  </si>
+  <si>
+    <t>Comment24</t>
+  </si>
+  <si>
+    <t>Comment25</t>
+  </si>
+  <si>
+    <t>Comment26</t>
+  </si>
+  <si>
+    <t>Comment27</t>
+  </si>
+  <si>
+    <t>Comment28</t>
+  </si>
+  <si>
+    <t>Comment29</t>
+  </si>
+  <si>
+    <t>Comment30</t>
+  </si>
+  <si>
+    <t>Comment31</t>
+  </si>
+  <si>
+    <t>Comment32</t>
+  </si>
+  <si>
+    <t>Comment33</t>
+  </si>
+  <si>
+    <t>Comment34</t>
+  </si>
+  <si>
+    <t>Comment35</t>
+  </si>
+  <si>
+    <t>Comment36</t>
+  </si>
+  <si>
+    <t>Comment37</t>
+  </si>
+  <si>
+    <t>Comment38</t>
+  </si>
+  <si>
+    <t>Coverage Requirements Comment 1</t>
+  </si>
+  <si>
+    <t>Coverage Requirements</t>
+  </si>
+  <si>
+    <t>Vehicle &amp; Driver Schedule(Table)</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Make</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>VIN Number</t>
+  </si>
+  <si>
+    <t>Cost New</t>
+  </si>
+  <si>
+    <t>ZipCode</t>
+  </si>
+  <si>
+    <t>Loss Payee</t>
+  </si>
+  <si>
+    <t>Fleet ID #</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Neel</t>
-  </si>
-  <si>
-    <t>s</t>
+    <t>Driver’s License#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Date of Birth</t>
+  </si>
+  <si>
+    <t>How Many Total Employees</t>
+  </si>
+  <si>
+    <t>Internaltional</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>Exposure Rented in US</t>
+  </si>
+  <si>
+    <t>Exposure Rest of World</t>
+  </si>
+  <si>
+    <t>No. of Rental Car Days</t>
+  </si>
+  <si>
+    <t>Annual Cost of Hired Auto*</t>
+  </si>
+  <si>
+    <t>Auto Non-Owned / Hired Questionnaire</t>
+  </si>
+  <si>
+    <t>U.S</t>
+  </si>
+  <si>
+    <t>Rest of the World</t>
+  </si>
+  <si>
+    <t>If you hire large trucks or expensive autos please advise maximum value?</t>
+  </si>
+  <si>
+    <t>Does the insured check the MVR's of employees that regularly drive their own vehicles or hired autos on company business?</t>
+  </si>
+  <si>
+    <t>Does the insured or insured employee use their own vehicles for company business?</t>
+  </si>
+  <si>
+    <t>Does the insured have any owned vehicles that are not covered under our policy?</t>
+  </si>
+  <si>
+    <t>Owned Autos Physical Damage</t>
+  </si>
+  <si>
+    <t>Hired Autos Physical Damage</t>
+  </si>
+  <si>
+    <t>Liability (Owned/Non-Owned/Hired Auto)</t>
+  </si>
+  <si>
+    <t>Personal Injury Protection (PIP)</t>
+  </si>
+  <si>
+    <t>Unisured/Underinsured Motorist</t>
+  </si>
+  <si>
+    <t>Physical Damage (Owned Auto)</t>
+  </si>
+  <si>
+    <t>Physical Damage (Hired Auto)</t>
+  </si>
+  <si>
+    <t>Hyundai</t>
+  </si>
+  <si>
+    <t>Creta</t>
+  </si>
+  <si>
+    <t>VIN_8769\der2322$#</t>
+  </si>
+  <si>
+    <t>$60000</t>
+  </si>
+  <si>
+    <t>Avenue Street 1</t>
+  </si>
+  <si>
+    <t>Test 1</t>
+  </si>
+  <si>
+    <t>Test 3</t>
+  </si>
+  <si>
+    <t>Test'R Sham Singh</t>
+  </si>
+  <si>
+    <t>$50000</t>
+  </si>
+  <si>
+    <t>$45000</t>
+  </si>
+  <si>
+    <t>CA Ex Mod</t>
+  </si>
+  <si>
+    <t>NCCI Ex Mod</t>
+  </si>
+  <si>
+    <t>MI Mod</t>
+  </si>
+  <si>
+    <t>NJ Mod</t>
+  </si>
+  <si>
+    <t>PA Mod</t>
+  </si>
+  <si>
+    <t>DE Mod</t>
+  </si>
+  <si>
+    <t>UIN/ID</t>
+  </si>
+  <si>
+    <t>Class Code</t>
+  </si>
+  <si>
+    <t>Class Code Description</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t># of Employees</t>
+  </si>
+  <si>
+    <t>Estimated Annual Remuneration
+Projection for the Current Policy Year</t>
+  </si>
+  <si>
+    <t>Restricted Stock Units (RSUs)
+for Current Policy Year</t>
+  </si>
+  <si>
+    <t>Projected</t>
+  </si>
+  <si>
+    <t>$4000000</t>
+  </si>
+  <si>
+    <t>$1500000</t>
+  </si>
+  <si>
+    <t>$3000000</t>
+  </si>
+  <si>
+    <t>Corporate Officers Listing</t>
+  </si>
+  <si>
+    <t>Name and Title</t>
+  </si>
+  <si>
+    <t>Classification Code</t>
+  </si>
+  <si>
+    <t>State Code where Officer Works</t>
+  </si>
+  <si>
+    <t>Annual Remuneration</t>
+  </si>
+  <si>
+    <t>MR, Test Singh</t>
+  </si>
+  <si>
+    <t>$150000</t>
+  </si>
+  <si>
+    <t>Delaware</t>
+  </si>
+  <si>
+    <t>Payroll</t>
+  </si>
+  <si>
+    <t>Permanent</t>
+  </si>
+  <si>
+    <t>Workers Compensation</t>
+  </si>
+  <si>
+    <t>Employers' Liability</t>
+  </si>
+  <si>
+    <t>USL&amp;H</t>
+  </si>
+  <si>
+    <t>Voluntary Compensation</t>
+  </si>
+  <si>
+    <t>Stop Gap</t>
+  </si>
+  <si>
+    <t>Answer</t>
+  </si>
+  <si>
+    <t>Does applicant own, operate or lease Aircraft/Watercraft?</t>
+  </si>
+  <si>
+    <t>Any work performed underground or above 15 feet?</t>
+  </si>
+  <si>
+    <t>Any work performed on barges, vessels, docks, bridge over water?</t>
+  </si>
+  <si>
+    <t>Is applicant engaged in any other type of business?</t>
+  </si>
+  <si>
+    <t>Are sub-contractors used? (If yes, give % of work subcontracted)</t>
+  </si>
+  <si>
+    <t>Any work sublet without certificates of insurance?</t>
+  </si>
+  <si>
+    <t>Is a written safety program in operation?</t>
+  </si>
+  <si>
+    <t>Any group transportation provided?</t>
+  </si>
+  <si>
+    <t>Any seasonal employees?</t>
+  </si>
+  <si>
+    <t>Do employees travel out of state?</t>
+  </si>
+  <si>
+    <t>Are athletic teams sponsored?</t>
+  </si>
+  <si>
+    <t>Are physicals required after offers of employment are made?</t>
+  </si>
+  <si>
+    <t>Any prior coverage declined/cancelled/non-renewed (Last 3 years)?</t>
+  </si>
+  <si>
+    <t>Are employee health plans provided?</t>
+  </si>
+  <si>
+    <t>Is there a labor interchange with any other business/subsidiary?</t>
+  </si>
+  <si>
+    <t>Do any employees predominantly work at home?</t>
+  </si>
+  <si>
+    <t>Any tax liens or bankruptcy within the last 5 years?</t>
+  </si>
+  <si>
+    <t>Any undisputed and unpaid Workers Compensation premium due from you or any commonly managed or owned enterprises?</t>
+  </si>
+  <si>
+    <t>Test 2</t>
+  </si>
+  <si>
+    <t>Test 4</t>
+  </si>
+  <si>
+    <t>Test 5</t>
+  </si>
+  <si>
+    <t>Test 6</t>
+  </si>
+  <si>
+    <t>Test 7</t>
+  </si>
+  <si>
+    <t>Test 8</t>
+  </si>
+  <si>
+    <t>Test 9</t>
+  </si>
+  <si>
+    <t>Test 10</t>
+  </si>
+  <si>
+    <t>Test 11</t>
+  </si>
+  <si>
+    <t>Test 12</t>
+  </si>
+  <si>
+    <t>Test 13</t>
+  </si>
+  <si>
+    <t>Test 14</t>
+  </si>
+  <si>
+    <t>Test 15</t>
+  </si>
+  <si>
+    <t>Test 16</t>
+  </si>
+  <si>
+    <t>Test 17</t>
+  </si>
+  <si>
+    <t>Test 18</t>
+  </si>
+  <si>
+    <t>Test 19</t>
+  </si>
+  <si>
+    <t>Test 20</t>
+  </si>
+  <si>
+    <t>Number of Employees</t>
+  </si>
+  <si>
+    <t>Group Medical Provider(s)</t>
+  </si>
+  <si>
+    <t>% of Employees Participating</t>
+  </si>
+  <si>
+    <t>Detailed description of Operations, processes and employee duties:
+(Max 500 characters)</t>
+  </si>
+  <si>
+    <t>Test Supply</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Named Insureds</t>
+  </si>
+  <si>
+    <t>JRSK, Inc. (DBA Away)</t>
+  </si>
+  <si>
+    <t>abc2@abc2@abc2@abc2@abc2@abc2@abc2@abc2@abc2@abc2@abc2@abc2@abc2@abc2@abc2@abc2@abc2@abc2@abc2@abc2@abc2@abc2@abc2@abc2@abc2@abc2@abc2@abc2@abc2@abc2@abc2@abc2@abc2@abc2@abc2@</t>
+  </si>
+  <si>
+    <t>Description Of Operations</t>
+  </si>
+  <si>
+    <t>Testing Operation</t>
+  </si>
+  <si>
+    <t>abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2</t>
+  </si>
+  <si>
+    <t>FEIN</t>
+  </si>
+  <si>
+    <t>123abc@@@</t>
+  </si>
+  <si>
+    <t>State of inc. or jurisdiction</t>
+  </si>
+  <si>
+    <t>abc2@abc2@abc2@abc2@abc2@abc2@abc2@abc2@abc2@abc2@</t>
+  </si>
+  <si>
+    <t>Date Established</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Delaware21</t>
+  </si>
+  <si>
+    <t>abcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcdeabcde12345@@@@@abcde</t>
+  </si>
+  <si>
+    <t>Driv345T23</t>
+  </si>
+  <si>
+    <t># of People</t>
+  </si>
+  <si>
+    <t>To/From Where?</t>
+  </si>
+  <si>
+    <t>US Employees</t>
+  </si>
+  <si>
+    <t># of Trips &amp; Frequency</t>
+  </si>
+  <si>
+    <t>Average Duration</t>
+  </si>
+  <si>
+    <t>Rest of the world</t>
+  </si>
+  <si>
+    <t>From Test Location to Delaware</t>
+  </si>
+  <si>
+    <t>2 Weeks</t>
+  </si>
+  <si>
+    <t>Test Location 1  From Delaware</t>
+  </si>
+  <si>
+    <t>Test Description</t>
+  </si>
+  <si>
+    <t>States with Operation:</t>
+  </si>
+  <si>
+    <t>Test1</t>
+  </si>
+  <si>
+    <t>Prior employers contacted</t>
+  </si>
+  <si>
+    <t>Pre - placement drug screen</t>
+  </si>
+  <si>
+    <t>Test2</t>
+  </si>
+  <si>
+    <t>Pre - placement physicals</t>
+  </si>
+  <si>
+    <t>Test3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Driving records checked (MVR) </t>
+  </si>
+  <si>
+    <t>Test4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Injury Illness Prevention Program (IIPP) in place </t>
+  </si>
+  <si>
+    <t>Test5</t>
+  </si>
+  <si>
+    <t>Number of Company Vehicles:</t>
+  </si>
+  <si>
+    <t>Personal use Allowed?</t>
+  </si>
+  <si>
+    <t>Test22</t>
+  </si>
+  <si>
+    <t>Subcontractors Used:</t>
+  </si>
+  <si>
+    <t>Test23</t>
+  </si>
+  <si>
+    <t>Certificates of Insurance Required:</t>
+  </si>
+  <si>
+    <t>Test24</t>
+  </si>
+  <si>
+    <t>Person who is responsible for your safety program?</t>
+  </si>
+  <si>
+    <t>Test Person</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Types or topics of safety training provided last year
+</t>
+  </si>
+  <si>
+    <t>Person who investigates accidents:</t>
+  </si>
+  <si>
+    <t>Test Investigator</t>
+  </si>
+  <si>
+    <t>Most frequent type of accident:</t>
+  </si>
+  <si>
+    <t>Test type</t>
+  </si>
+  <si>
+    <t>Most severe type of accident:</t>
+  </si>
+  <si>
+    <t>Test Severe</t>
+  </si>
+  <si>
+    <t>What are you doing to control these accidents?</t>
+  </si>
+  <si>
+    <t>Control Test</t>
+  </si>
+  <si>
+    <t>Test Note Supplementary</t>
+  </si>
+  <si>
+    <t>Test group medical</t>
+  </si>
+  <si>
+    <t>Questions</t>
+  </si>
+  <si>
+    <t>Frequency of safety meetings:</t>
+  </si>
+  <si>
+    <t>Date of last safety meeting:</t>
+  </si>
+  <si>
+    <t>Frequency of safety inspections
+(monthly / quarterly etc):</t>
+  </si>
+  <si>
+    <t>Date of last safety inspection:</t>
+  </si>
+  <si>
+    <t>BIO Hazard Level:</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>07/08/2020</t>
+  </si>
+  <si>
+    <t>monthly</t>
+  </si>
+  <si>
+    <t>Coverage Description</t>
+  </si>
+  <si>
+    <t>Avenue Street</t>
+  </si>
+  <si>
+    <t>abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2@abcd2</t>
+  </si>
+  <si>
+    <t>ABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDF$^&amp;!@&amp;1</t>
+  </si>
+  <si>
+    <t>12345678910ABC</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>20/20/2020</t>
+  </si>
+  <si>
+    <t>abc2$abc2$abc2$abc2$abc2$abc2$abc2$abc2$abc2$abc2$@@</t>
+  </si>
+  <si>
+    <t>Abcd@12$</t>
+  </si>
+  <si>
+    <t>abc2*&amp;@2aaabc2*&amp;@2abc2*&amp;bc2*&amp;@2abc2*&amp;@2abc2*&amp;@2abc2*&amp;@2abc2*&amp;@2abc2*&amp;@2abc2*&amp;@2abc2*&amp;@2abc2*&amp;@2abc2*&amp;@2abc2*&amp;@2abc2*&amp;@2abc2*&amp;@2abc2*&amp;@2abc2*&amp;@2bc2*&amp;@2</t>
+  </si>
+  <si>
+    <t>abcdeabcdeabcdeabcdeabcdeabcdeabcdeabcdeabcdeabcdeabcdeabcdeabcdeabcdeabcdeabcdeabcdeabcdeabcdeabcde</t>
+  </si>
+  <si>
+    <t>Abcd #@1</t>
+  </si>
+  <si>
+    <t>Test4006121</t>
+  </si>
+  <si>
+    <t>Ab@2$Ab@2$Ab@2$Ab@2$Ab@2$Ab@2$Ab@2$Ab@2$Ab@2$Ab@2$222S</t>
+  </si>
+  <si>
+    <t>Test*_!1234Test*_!1234Test*_!1234Test*_!1234Test*Test*_!1234Test*_!1234Test*_!1234Test*_!1234Test*_!1234Test*_!1234Test*_!_!1234Test*_!1234Test*_!1234</t>
+  </si>
+  <si>
+    <t>ABCW@@</t>
+  </si>
+  <si>
+    <t>abc123</t>
+  </si>
+  <si>
+    <t>DIV123@ DIV123T23Test@@ DIV123Test DIV123Test '</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="165" formatCode="mm\/dd\/yyyy"/>
+    <numFmt numFmtId="166" formatCode="dd\/mm\/yyyy"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,16 +1455,98 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F2A44"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF5B6770"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212529"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -79,14 +1554,129 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD0D3D4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Heading 4" xfId="1" builtinId="19"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -398,37 +1988,3871 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28070D1-06AB-4FBD-AA78-020D2034907D}">
-  <dimension ref="A1:G18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE12E4D-FB7F-4E63-97F0-B0D0FFCBC628}">
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="93.5703125" customWidth="1"/>
+    <col min="3" max="3" width="68.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+    </row>
+    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>380</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>382</v>
+      </c>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+    </row>
+    <row r="3" spans="1:5" ht="164.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>384</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>386</v>
+      </c>
+      <c r="B4" s="26">
+        <v>123456789</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>451</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>387</v>
+      </c>
+      <c r="E4" s="26">
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>393</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>449</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>389</v>
+      </c>
+      <c r="E5" s="26"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>390</v>
+      </c>
+      <c r="B6" s="31">
+        <v>43989</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="D6" s="26"/>
+      <c r="E6" s="30"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>452</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+    </row>
+    <row r="8" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>392</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>394</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>450</v>
+      </c>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{26826582-39D9-43B7-8255-2774B783E13D}"/>
+    <hyperlink ref="C8" display="ABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDF" xr:uid="{12252DAF-8F83-47AD-8C21-0929200B96DD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0225CBA0-1286-43E7-81E1-D63CD105B082}">
+  <dimension ref="A1:C30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44.5703125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="B2" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
+        <v>375</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
+        <v>376</v>
+      </c>
+      <c r="B4" s="35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
+        <v>377</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>405</v>
+      </c>
+      <c r="C5" s="17"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="37" t="s">
+        <v>406</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>407</v>
+      </c>
+      <c r="C6" s="17"/>
+    </row>
+    <row r="7" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="38" t="s">
+        <v>437</v>
+      </c>
+      <c r="B7" s="34"/>
+      <c r="C7" s="17"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="s">
+        <v>408</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>407</v>
+      </c>
+      <c r="C8" s="17"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="39" t="s">
+        <v>409</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>410</v>
+      </c>
+      <c r="C9" s="17"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="39" t="s">
+        <v>411</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>412</v>
+      </c>
+      <c r="C10" s="17"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="39" t="s">
+        <v>413</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>414</v>
+      </c>
+      <c r="C11" s="17"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="39" t="s">
+        <v>415</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>416</v>
+      </c>
+      <c r="C12" s="17"/>
+    </row>
+    <row r="13" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="38"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="17"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="46" t="s">
+        <v>417</v>
+      </c>
+      <c r="B14" s="34">
+        <v>25</v>
+      </c>
+      <c r="C14" s="17"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="46"/>
+      <c r="B15" s="34">
+        <v>15</v>
+      </c>
+      <c r="C15" s="17"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="39" t="s">
+        <v>418</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>419</v>
+      </c>
+      <c r="C16" s="17"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="39" t="s">
+        <v>420</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="C17" s="17"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="39" t="s">
+        <v>422</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>423</v>
+      </c>
+      <c r="C18" s="17"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>425</v>
+      </c>
+      <c r="C19" s="17"/>
+    </row>
+    <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="36" t="s">
+        <v>426</v>
+      </c>
+      <c r="B20" s="34">
+        <v>2</v>
+      </c>
+      <c r="C20" s="17"/>
+    </row>
+    <row r="21" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="36" t="s">
+        <v>438</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>444</v>
+      </c>
+      <c r="C21" s="17"/>
+    </row>
+    <row r="22" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="42" t="s">
+        <v>439</v>
+      </c>
+      <c r="B22" s="40" t="s">
+        <v>445</v>
+      </c>
+      <c r="C22" s="17"/>
+    </row>
+    <row r="23" spans="1:3" s="26" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="36" t="s">
+        <v>440</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>446</v>
+      </c>
+      <c r="C23" s="17"/>
+    </row>
+    <row r="24" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="41" t="s">
+        <v>441</v>
+      </c>
+      <c r="B24" s="40" t="s">
+        <v>445</v>
+      </c>
+      <c r="C24" s="17"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="39" t="s">
+        <v>427</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>428</v>
+      </c>
+      <c r="C25" s="17"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="39" t="s">
+        <v>429</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>430</v>
+      </c>
+      <c r="C26" s="17"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="39" t="s">
+        <v>431</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>432</v>
+      </c>
+      <c r="C27" s="17"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="39" t="s">
+        <v>433</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>434</v>
+      </c>
+      <c r="C28" s="17"/>
+    </row>
+    <row r="29" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="42" t="s">
+        <v>442</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>443</v>
+      </c>
+      <c r="C29" s="17"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>435</v>
+      </c>
+      <c r="C30" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A14:A15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C884AA-D984-4FBE-A6B1-ADD5E612BF85}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.85546875" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G18" t="s">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>100000</v>
+      </c>
+      <c r="C7" s="1">
+        <v>150000</v>
+      </c>
+      <c r="D7" s="1">
+        <v>170000</v>
+      </c>
+      <c r="E7" s="1">
+        <v>175000</v>
+      </c>
+      <c r="F7" s="1">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>8333</v>
+      </c>
+      <c r="C8" s="1">
+        <v>12500</v>
+      </c>
+      <c r="D8" s="1">
+        <v>14166</v>
+      </c>
+      <c r="E8" s="1">
+        <v>14583</v>
+      </c>
+      <c r="F8" s="1">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3000</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2900</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3100</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4000</v>
+      </c>
+      <c r="F9" s="1">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6772356F-1659-4F7E-AC7D-01E061448FE4}">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.42578125" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8">
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9">
+        <v>112500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10">
+        <v>102500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" s="1">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" s="1">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>123</v>
+      </c>
+      <c r="B22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7386B1F8-159A-49CF-ACED-F12B36D938AD}">
+  <dimension ref="A1:D64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.28515625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8" s="8">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" s="8">
+        <v>19500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B11" s="8">
+        <v>18500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B12" s="8">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B13" s="8">
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B14" s="8">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B15" s="8">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B16" s="8">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B17" s="8">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B18" s="8">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B19" s="8">
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B20" s="8">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B21" s="8">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="18" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{327F0A58-02FC-4F22-8797-343AD32130AA}">
+  <dimension ref="A1:B53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7">
+        <v>1234567890</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="1">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="1">
+        <v>200000.56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="1">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1400.56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33">
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39">
+        <v>11500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E98ACFED-53D8-4B8E-A1BE-A313061888EE}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.42578125" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D2AA5C-E1C4-4CA2-AB01-8B2F45BFCDB3}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.42578125" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8">
+        <v>1234567894</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="25">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD64823-EFCF-44A3-A118-48D047AF17D3}">
+  <dimension ref="A1:D65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.28515625" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="45"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" s="11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" s="12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" s="11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" s="11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" s="11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" s="11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B17" s="11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" s="11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B19">
+        <v>99.55</v>
+      </c>
+      <c r="C19">
+        <v>99.55</v>
+      </c>
+      <c r="D19">
+        <v>99.55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>100.45</v>
+      </c>
+      <c r="C20">
+        <v>100.45</v>
+      </c>
+      <c r="D20">
+        <v>100.45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>55</v>
+      </c>
+      <c r="C21">
+        <v>55</v>
+      </c>
+      <c r="D21">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>999</v>
+      </c>
+      <c r="C22">
+        <v>999</v>
+      </c>
+      <c r="D22">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>134</v>
+      </c>
+      <c r="B23">
+        <v>777.55</v>
+      </c>
+      <c r="C23">
+        <v>777.55</v>
+      </c>
+      <c r="D23">
+        <v>777.55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="B26" s="45"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>128</v>
+      </c>
+      <c r="B29" s="11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>129</v>
+      </c>
+      <c r="B30" s="11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>130</v>
+      </c>
+      <c r="B31" s="11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>128</v>
+      </c>
+      <c r="B33" s="11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>129</v>
+      </c>
+      <c r="B34" s="11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>130</v>
+      </c>
+      <c r="B35" s="11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>128</v>
+      </c>
+      <c r="B37" s="11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>129</v>
+      </c>
+      <c r="B38" s="11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>130</v>
+      </c>
+      <c r="B39" s="11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>133</v>
+      </c>
+      <c r="B40">
+        <v>99.55</v>
+      </c>
+      <c r="C40">
+        <v>99.55</v>
+      </c>
+      <c r="D40">
+        <v>99.55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>100.45</v>
+      </c>
+      <c r="C41">
+        <v>100.45</v>
+      </c>
+      <c r="D41">
+        <v>100.45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>55</v>
+      </c>
+      <c r="C42">
+        <v>55</v>
+      </c>
+      <c r="D42">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>999</v>
+      </c>
+      <c r="C43">
+        <v>999</v>
+      </c>
+      <c r="D43">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>134</v>
+      </c>
+      <c r="B44">
+        <v>777.55</v>
+      </c>
+      <c r="C44">
+        <v>777.55</v>
+      </c>
+      <c r="D44">
+        <v>777.55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <v>10</v>
+      </c>
+      <c r="D45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>143</v>
+      </c>
+      <c r="B48">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>144</v>
+      </c>
+      <c r="B49">
+        <v>19500</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>145</v>
+      </c>
+      <c r="B50">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>143</v>
+      </c>
+      <c r="B52">
+        <v>18500</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>146</v>
+      </c>
+      <c r="B53">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>147</v>
+      </c>
+      <c r="B54">
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>148</v>
+      </c>
+      <c r="B55">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>149</v>
+      </c>
+      <c r="B56">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>150</v>
+      </c>
+      <c r="B57">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>151</v>
+      </c>
+      <c r="B58">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>152</v>
+      </c>
+      <c r="B59">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>153</v>
+      </c>
+      <c r="B60">
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>144</v>
+      </c>
+      <c r="B61">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>144</v>
+      </c>
+      <c r="B62">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>52</v>
+      </c>
+      <c r="B65" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A26:B26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D80E40C2-8F61-422B-8B66-5E35CD325EB0}">
+  <dimension ref="A1:F42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.28515625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" style="8" customWidth="1"/>
+    <col min="3" max="4" width="14.7109375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="38.28515625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="B3" s="8">
+        <v>2015</v>
+      </c>
+      <c r="E3" s="8">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="B5" t="s">
+        <v>296</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="28" t="s">
+        <v>454</v>
+      </c>
+      <c r="F5" s="17"/>
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="28" t="s">
+        <v>454</v>
+      </c>
+      <c r="F6" s="17"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="43" t="s">
+        <v>455</v>
+      </c>
+      <c r="F7" s="17"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="28" t="s">
+        <v>458</v>
+      </c>
+      <c r="F8" s="17"/>
+    </row>
+    <row r="9" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="29" t="s">
+        <v>456</v>
+      </c>
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="43" t="s">
+        <v>455</v>
+      </c>
+      <c r="F10" s="17"/>
+    </row>
+    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="28" t="s">
+        <v>457</v>
+      </c>
+      <c r="F11" s="17"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="B12" s="8">
+        <v>12345</v>
+      </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="28" t="s">
+        <v>459</v>
+      </c>
+      <c r="F12" s="17"/>
+    </row>
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="29" t="s">
+        <v>460</v>
+      </c>
+      <c r="F13" s="17"/>
+    </row>
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="44" t="s">
+        <v>460</v>
+      </c>
+      <c r="F14" s="17"/>
+    </row>
+    <row r="15" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="28" t="s">
+        <v>461</v>
+      </c>
+      <c r="F15" s="17"/>
+    </row>
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F16" s="17"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="B17" s="32">
+        <v>32330</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="27">
+        <v>61254</v>
+      </c>
+      <c r="F17" s="17"/>
+    </row>
+    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="28" t="s">
+        <v>457</v>
+      </c>
+      <c r="F18" s="17"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="B19"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="17"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20">
+        <v>1000</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="28" t="s">
+        <v>462</v>
+      </c>
+      <c r="F20" s="17"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="B21">
+        <v>1000</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="28" t="s">
+        <v>462</v>
+      </c>
+      <c r="F21" s="17"/>
+    </row>
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="B23">
+        <v>300</v>
+      </c>
+      <c r="C23" s="17">
+        <v>250</v>
+      </c>
+      <c r="D23" s="17"/>
+      <c r="E23" s="28" t="s">
+        <v>462</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="B24" t="s">
+        <v>303</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="D24" s="17"/>
+      <c r="E24" s="28" t="s">
+        <v>463</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="D25" s="17"/>
+      <c r="E25" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="D26" s="17"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="17"/>
+    </row>
+    <row r="27" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="B27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="17"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="17"/>
+    </row>
+    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="B28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="17"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="17"/>
+    </row>
+    <row r="29" spans="1:6" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="B29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="17"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="17"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="B32" s="8">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="B33" s="8">
+        <v>19500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="B35" s="8">
+        <v>18500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="B36" s="8">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B37" s="8">
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="B38" s="8">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B39" s="8">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="B40" s="8">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="18" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E7" r:id="rId1" xr:uid="{41E8F483-D018-47E4-9739-CDF826D61FCE}"/>
+    <hyperlink ref="E9" r:id="rId2" xr:uid="{9C7674AA-743C-4878-B8B8-10A150D6FE88}"/>
+    <hyperlink ref="E13" r:id="rId3" xr:uid="{3966AD61-0D14-475D-BF9C-AFE3112968A4}"/>
+    <hyperlink ref="E14" r:id="rId4" xr:uid="{4F30EE64-A767-4D2B-8A4D-ECC793F2113E}"/>
+    <hyperlink ref="E10" r:id="rId5" xr:uid="{7329CDD2-294B-465E-9055-F10B0E6F06B4}"/>
+    <hyperlink ref="E16" r:id="rId6" xr:uid="{DFC94777-4915-47E3-B8E8-CAB692DEE9A3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6855AF93-82AA-4D05-A803-46C5BBC6D83F}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="B5" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="B6" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="B8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>404</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84AE8549-2611-4C3D-8F42-2BE39C7FE28A}">
+  <dimension ref="A1:C63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.28515625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="B2" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="B3" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="B4" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5" s="17"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="B6" s="8">
+        <v>5</v>
+      </c>
+      <c r="C6" s="17"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="B7" s="8">
+        <v>6</v>
+      </c>
+      <c r="C7" s="17"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="17"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="C9" s="17"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="17"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="17"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="B12" s="8">
+        <v>878983145</v>
+      </c>
+      <c r="C12" s="17"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="B13" s="8">
+        <v>98789</v>
+      </c>
+      <c r="C13" s="17"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="B14" s="8">
+        <v>98987</v>
+      </c>
+      <c r="C14" s="17"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="B15" s="8">
+        <v>877889</v>
+      </c>
+      <c r="C15" s="17"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="C16" s="17"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="B17" s="8">
+        <v>1000</v>
+      </c>
+      <c r="C17" s="17"/>
+    </row>
+    <row r="18" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" s="17"/>
+    </row>
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="C19" s="17"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B20" s="23"/>
+      <c r="C20" s="17"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="B21" s="8">
+        <v>1000</v>
+      </c>
+      <c r="C21" s="17"/>
+    </row>
+    <row r="22" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="C22" s="17"/>
+    </row>
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>321</v>
+      </c>
+      <c r="C23" s="17"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="B24"/>
+      <c r="C24" s="17"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B25" t="s">
+        <v>327</v>
+      </c>
+      <c r="C25" s="17"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="B26">
+        <v>8789</v>
+      </c>
+      <c r="C26" s="17"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="B27">
+        <v>8776</v>
+      </c>
+      <c r="C27" s="17"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="B28" t="s">
+        <v>328</v>
+      </c>
+      <c r="C28" s="17"/>
+    </row>
+    <row r="29" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C29" s="17"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" t="s">
+        <v>329</v>
+      </c>
+      <c r="C30" s="17"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="B31">
+        <v>8989</v>
+      </c>
+      <c r="C31" s="17"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B32" t="s">
+        <v>331</v>
+      </c>
+      <c r="C32" s="17"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="18" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="B36" s="8">
+        <v>18500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="B37" s="8">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="B38" s="8">
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="B39" s="8">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="B40" s="8">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A63" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>373</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>